--- a/annualcheck63_asset20100-1.xlsx
+++ b/annualcheck63_asset20100-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/cit-asset/cit-asset-frontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD65AA0-57FF-9C45-A22D-D592AA2BF2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDAAA7B-8D93-9940-8334-6C9F1B6AEB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
   <si>
     <t>รหัสคณะ</t>
   </si>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H14" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -641,7 +641,7 @@
       <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -971,15 +971,11 @@
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>36</v>
       </c>
@@ -992,9 +988,7 @@
       <c r="M6" s="7">
         <v>39518</v>
       </c>
-      <c r="N6" s="4">
-        <v>33659.78</v>
-      </c>
+      <c r="N6" s="4"/>
       <c r="O6" s="2" t="s">
         <v>39</v>
       </c>
@@ -1055,15 +1049,11 @@
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1076,9 +1066,7 @@
       <c r="M7" s="7">
         <v>39518</v>
       </c>
-      <c r="N7" s="4">
-        <v>33659.78</v>
-      </c>
+      <c r="N7" s="4"/>
       <c r="O7" s="2" t="s">
         <v>39</v>
       </c>
